--- a/router_fingerpringting/classify/result.xlsx
+++ b/router_fingerpringting/classify/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="9720" windowHeight="8430"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="9720" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
   <si>
     <t>Logistic</t>
   </si>
@@ -65,6 +65,46 @@
   </si>
   <si>
     <t>tplink_fe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/XJTUWLAN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/xunjie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/tplink_4f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi/tplink_fe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XJTUWLAN\xunjie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XJTUWLAN\tplink_4f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XJTUWLAN\tplink_fe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xunjie\tplink_4f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xunjie\tplink_fe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tplink_4f\tplink_fe</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -710,30 +750,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -791,6 +840,1386 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>二分类效果</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="lt2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$F$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>xiaomi/XJTUWLAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xiaomi/xunjie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xiaomi/tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xiaomi/tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XJTUWLAN\xunjie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XJTUWLAN\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XJTUWLAN\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xunjie\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>xunjie\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>tplink_4f\tplink_fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$32:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72222222222200005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59459459459499997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87878787878800002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77777777777799995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78787878787900001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88888888888899997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87878787878800002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75675675675700005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90909090909099999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A02-4E4E-8B0C-1889F25CCDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="lt2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$F$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>xiaomi/XJTUWLAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xiaomi/xunjie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xiaomi/tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xiaomi/tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XJTUWLAN\xunjie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XJTUWLAN\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XJTUWLAN\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xunjie\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>xunjie\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>tplink_4f\tplink_fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$33:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51351351351399999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87878787878800002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.805555555556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78787878787900001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90909090909099999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78378378378400004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96969696969700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A02-4E4E-8B0C-1889F25CCDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Support Vector Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="lt2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$F$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>xiaomi/XJTUWLAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xiaomi/xunjie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xiaomi/tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xiaomi/tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XJTUWLAN\xunjie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XJTUWLAN\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XJTUWLAN\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xunjie\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>xunjie\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>tplink_4f\tplink_fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72222222222200005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56756756756799998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75757575757600004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88888888888899997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84848484848500005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78378378378400004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87878787878800002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A02-4E4E-8B0C-1889F25CCDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="lt2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$F$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>xiaomi/XJTUWLAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xiaomi/xunjie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xiaomi/tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xiaomi/tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XJTUWLAN\xunjie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XJTUWLAN\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XJTUWLAN\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xunjie\tplink_4f</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>xunjie\tplink_fe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>tplink_4f\tplink_fe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$35:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.97222222222200005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81081081081100004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84848484848500005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81818181818199998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93939393939399995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89189189189200002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96969696969700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A02-4E4E-8B0C-1889F25CCDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="480981824"/>
+        <c:axId val="480983792"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="480981824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480983792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480983792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480981824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>483393</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>378618</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A57D0D-D5F3-49A1-B43F-A223E4403D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1125,30 +2554,30 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1162,31 +2591,31 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.79113924050600004</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.68923076923100002</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.88581314878899997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.74277456647399998</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>0.81962025316499998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.72</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.91695501730100004</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.79768786127199998</v>
       </c>
     </row>
@@ -1198,29 +2627,29 @@
         <v>0.72222222222200005</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.72222222222200005</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.59459459459499997</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.87878787878800002</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.6</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0.75</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0.51351351351399999</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.87878787878800002</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.65</v>
       </c>
     </row>
@@ -1232,26 +2661,26 @@
         <v>7</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.73101265822799999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.79930795847799996</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.90506329113899997</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="2">
+      <c r="K5" s="8"/>
+      <c r="L5" s="1">
         <v>0.73101265822799999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.82352941176500005</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.94303797468399997</v>
       </c>
     </row>
@@ -1264,24 +2693,24 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.77777777777799995</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.78787878787900001</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.88888888888899997</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="2">
+      <c r="K6" s="10"/>
+      <c r="L6" s="1">
         <v>0.805555555556</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.78787878787900001</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.91666666666700003</v>
       </c>
     </row>
@@ -1297,21 +2726,21 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.88581314878899997</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.80307692307699996</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2">
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="1">
         <v>0.92387543252600002</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.84615384615400002</v>
       </c>
     </row>
@@ -1322,19 +2751,19 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.87878787878800002</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.75675675675700005</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="2">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="1">
         <v>0.90909090909099999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.78378378378400004</v>
       </c>
     </row>
@@ -1351,16 +2780,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.96193771626299995</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="1">
         <v>0.97923875432499996</v>
       </c>
     </row>
@@ -1375,14 +2804,14 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.90909090909099999</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="2">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="1">
         <v>0.96969696969700003</v>
       </c>
     </row>
@@ -1390,8 +2819,8 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -1400,8 +2829,8 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -1431,30 +2860,30 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1468,35 +2897,35 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.74050632911400005</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.62461538461499999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>0.74394463667800004</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.78612716763000001</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1504,33 +2933,33 @@
         <v>0.59459459459499997</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.72222222222200005</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.56756756756799998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>0.66666666666700003</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.7</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>0.97222222222200005</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>0.81081081081100004</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>0.84848484848500005</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1538,30 +2967,30 @@
         <v>7</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.64556962025300002</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>0.66782006920400006</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.93670886075899995</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1570,28 +2999,28 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>0.83333333333299997</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>0.75757575757600004</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.88888888888899997</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>0.75</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>0.81818181818199998</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1602,11 +3031,11 @@
         <v>9</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2">
+      <c r="F20" s="4"/>
+      <c r="G20" s="1">
         <v>0.81314878892700004</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.82153846153800003</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1614,37 +3043,37 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0.84848484848500005</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.78378378378400004</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>0.93939393939399995</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0.89189189189200002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +3086,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.98615916955000005</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -1666,11 +3095,11 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1679,37 +3108,37 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.87878787878800002</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>0.96969696969700003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1717,106 +3146,256 @@
         <v>0.81081081081100004</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28">
         <v>0.88581314878899997</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
         <v>0.87878787878800002</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31">
         <v>0.74394463667800004</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D32" s="7"/>
+      <c r="E32" s="1">
+        <v>0.72222222222200005</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.59459459459499997</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.87878787878800002</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.77777777777799995</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.78787878787900001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.88888888888899997</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.87878787878800002</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.75675675675700005</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.90909090909099999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D33" s="7"/>
+      <c r="E33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.51351351351399999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.87878787878800002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.805555555556</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.78787878787900001</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.91666666666700003</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.90909090909099999</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.78378378378400004</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.96969696969700003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34">
         <v>0.91695501730100004</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D34" s="7"/>
+      <c r="E34" s="1">
+        <v>0.72222222222200005</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.56756756756799998</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.75757575757600004</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.88888888888899997</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.84848484848500005</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.78378378378400004</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.87878787878800002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
         <v>0.87878787878800002</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D35" s="7"/>
+      <c r="E35" s="1">
+        <v>0.97222222222200005</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.81081081081100004</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.84848484848500005</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.81818181818199998</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.93939393939399995</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.89189189189200002</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.96969696969700003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
         <v>0.84848484848500005</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +3403,7 @@
         <v>0.74277456647399998</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1832,12 +3411,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +3424,7 @@
         <v>0.78612716763000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1853,12 +3432,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1866,7 +3445,7 @@
         <v>0.79768786127199998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1874,7 +3453,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2400,19 +3979,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="D14:H14"/>
+  <mergeCells count="38">
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
@@ -2429,21 +4009,18 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J14:N14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>